--- a/Power.xlsx
+++ b/Power.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlosj\Documents\HARP\NTP-Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HARP\NTP Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CED421-4492-497C-BC76-DFF24AB04E5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11685"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -71,9 +72,6 @@
     <t>PS</t>
   </si>
   <si>
-    <t>1866-4130-ND</t>
-  </si>
-  <si>
     <t>PS Current</t>
   </si>
   <si>
@@ -99,12 +97,15 @@
   </si>
   <si>
     <t>1866-4133-ND</t>
+  </si>
+  <si>
+    <t>1866-4142-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -427,11 +428,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +591,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>24</v>
@@ -605,7 +606,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -620,10 +621,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
         <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -632,10 +633,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -650,12 +651,9 @@
         <f>B16*A16</f>
         <v>0.36299999999999999</v>
       </c>
-      <c r="E16">
-        <v>0.1</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="F16" s="1" t="e">
         <f>(E16-B16)/E16</f>
-        <v>-9.999999999999995E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -671,7 +669,7 @@
         <v>4.7750000000000004</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -694,7 +692,7 @@
         <v>0.48</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -717,7 +715,7 @@
         <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>3.4</v>
@@ -740,14 +738,14 @@
         <v>14.400000000000002</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E20">
-        <v>0.625</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F20" s="1">
         <f>(E20-B20)/E20</f>
-        <v>3.9999999999999855E-2</v>
+        <v>0.45454545454545453</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
